--- a/docs/data/output/survey_processing/eda_scheme7.xlsx
+++ b/docs/data/output/survey_processing/eda_scheme7.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\TRM\trm_project\repo_trmg2\docs\data\output\survey_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4B1FE89E-C0CA-4D0B-823E-379882BA2B3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE77E4-098D-43D1-8A90-4BA871014F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eda_scheme7" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>tour_type</t>
   </si>
@@ -161,15 +161,12 @@
   </si>
   <si>
     <t>OME</t>
-  </si>
-  <si>
-    <t>O-O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1188,11 +1185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2133,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>

--- a/docs/data/output/survey_processing/eda_scheme7.xlsx
+++ b/docs/data/output/survey_processing/eda_scheme7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\TRM\trm_project\repo_trmg2\docs\data\output\survey_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE77E4-098D-43D1-8A90-4BA871014F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA9F9EF-E10A-439A-98EA-01D2D804D705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4313" yWindow="3615" windowWidth="14385" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eda_scheme7" sheetId="1" r:id="rId1"/>
@@ -1188,9 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1271,10 +1269,10 @@
         <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>27</v>
@@ -1373,10 +1371,10 @@
         <v>11.1</v>
       </c>
       <c r="Z2" s="7">
+        <v>27.7</v>
+      </c>
+      <c r="AA2" s="6">
         <v>39.200000000000003</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>27.7</v>
       </c>
       <c r="AB2" s="11">
         <v>5.53</v>
@@ -1475,10 +1473,10 @@
         <v>17</v>
       </c>
       <c r="Z3" s="14">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="15">
         <v>27.1</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>27</v>
       </c>
       <c r="AB3" s="16">
         <v>10.75</v>
@@ -1577,10 +1575,10 @@
         <v>27.1</v>
       </c>
       <c r="Z4" s="7">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AA4" s="6">
         <v>26.1</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>34.200000000000003</v>
       </c>
       <c r="AB4" s="11">
         <v>4.63</v>
@@ -1681,10 +1679,10 @@
         <v>46.5</v>
       </c>
       <c r="Z5" s="14">
+        <v>28.6</v>
+      </c>
+      <c r="AA5" s="15">
         <v>9.1999999999999993</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>28.6</v>
       </c>
       <c r="AB5" s="16">
         <v>6.27</v>
@@ -1785,10 +1783,10 @@
         <v>15.9</v>
       </c>
       <c r="Z6" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="AA6" s="6">
         <v>15.4</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>22.4</v>
       </c>
       <c r="AB6" s="11">
         <v>4.8600000000000003</v>
@@ -1889,10 +1887,10 @@
         <v>27.5</v>
       </c>
       <c r="Z7" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="AA7" s="6">
         <v>38.5</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>23.7</v>
       </c>
       <c r="AB7" s="11">
         <v>6.74</v>
@@ -1993,10 +1991,10 @@
         <v>25.6</v>
       </c>
       <c r="Z8" s="7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AA8" s="6">
         <v>27.6</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>32.799999999999997</v>
       </c>
       <c r="AB8" s="11">
         <v>3.43</v>
@@ -2095,10 +2093,10 @@
         <v>44.8</v>
       </c>
       <c r="Z9" s="14">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="15">
         <v>26.3</v>
-      </c>
-      <c r="AA9" s="15">
-        <v>24</v>
       </c>
       <c r="AB9" s="16">
         <v>5.07</v>
@@ -2199,10 +2197,10 @@
         <v>37.9</v>
       </c>
       <c r="Z10" s="7">
+        <v>30.1</v>
+      </c>
+      <c r="AA10" s="6">
         <v>15.9</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>30.1</v>
       </c>
       <c r="AB10" s="11">
         <v>5.08</v>
@@ -2301,10 +2299,10 @@
         <v>55</v>
       </c>
       <c r="Z11" s="9">
+        <v>22.1</v>
+      </c>
+      <c r="AA11" s="10">
         <v>18</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>22.1</v>
       </c>
       <c r="AB11" s="12">
         <v>4.58</v>

--- a/docs/data/output/survey_processing/eda_scheme7.xlsx
+++ b/docs/data/output/survey_processing/eda_scheme7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\TRM\trm_project\repo_trmg2\docs\data\output\survey_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA9F9EF-E10A-439A-98EA-01D2D804D705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBB2CA-6B8D-4D28-99A3-5B8DD451AA50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4313" yWindow="3615" windowWidth="14385" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eda_scheme7" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>tour_type</t>
   </si>
@@ -124,9 +124,6 @@
     <t>r_svl</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
     <t>HB</t>
   </si>
   <si>
@@ -139,15 +136,9 @@
     <t>W</t>
   </si>
   <si>
-    <t>NHB</t>
-  </si>
-  <si>
     <t>WR</t>
   </si>
   <si>
-    <t>NT</t>
-  </si>
-  <si>
     <t>K12</t>
   </si>
   <si>
@@ -161,6 +152,12 @@
   </si>
   <si>
     <t>OME</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1298,16 +1295,16 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="5">
         <v>2071</v>
@@ -1400,16 +1397,16 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="13">
         <v>3566</v>
@@ -1502,16 +1499,16 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>820</v>
@@ -1604,16 +1601,16 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="13">
         <v>2518</v>
@@ -1708,16 +1705,16 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5">
         <v>1555</v>
@@ -1812,16 +1809,16 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="5">
         <v>3887</v>
@@ -1916,16 +1913,16 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5">
         <v>2734</v>
@@ -2020,16 +2017,16 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="13">
         <v>4261</v>
@@ -2122,16 +2119,16 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="5">
         <v>1976</v>
@@ -2226,16 +2223,16 @@
     </row>
     <row r="11" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8">
         <v>3178</v>
@@ -2441,4 +2438,260 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC273F68D44EF549AD1BD0E5D55B5B7C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="315063b799ab555b4e77865ce3b3361e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35b81125-b047-47c8-b0b0-722baac7a528" xmlns:ns3="5fe89d89-77ff-4a7d-998d-403e04f568fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfebddd8dbdab9d9b5a54d21a7ba6ecf" ns2:_="" ns3:_="">
+    <xsd:import namespace="35b81125-b047-47c8-b0b0-722baac7a528"/>
+    <xsd:import namespace="5fe89d89-77ff-4a7d-998d-403e04f568fa"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="35b81125-b047-47c8-b0b0-722baac7a528" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5fe89d89-77ff-4a7d-998d-403e04f568fa" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{308980BF-9C3F-4B11-9095-FB89A547D61E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B2F7B5-8E59-498D-8C9D-352B09C1FE8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="35b81125-b047-47c8-b0b0-722baac7a528"/>
+    <ds:schemaRef ds:uri="5fe89d89-77ff-4a7d-998d-403e04f568fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5043D0-00AE-4565-A363-7C00372C4FA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/data/output/survey_processing/eda_scheme7.xlsx
+++ b/docs/data/output/survey_processing/eda_scheme7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\TRM\trm_project\repo_trmg2\docs\data\output\survey_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBB2CA-6B8D-4D28-99A3-5B8DD451AA50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F227B624-0F84-49D1-ABCD-B63ABDC33D21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10747" yWindow="675" windowWidth="14386" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eda_scheme7" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2441,15 +2443,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC273F68D44EF549AD1BD0E5D55B5B7C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="315063b799ab555b4e77865ce3b3361e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35b81125-b047-47c8-b0b0-722baac7a528" xmlns:ns3="5fe89d89-77ff-4a7d-998d-403e04f568fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfebddd8dbdab9d9b5a54d21a7ba6ecf" ns2:_="" ns3:_="">
     <xsd:import namespace="35b81125-b047-47c8-b0b0-722baac7a528"/>
@@ -2654,6 +2647,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2661,14 +2663,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{308980BF-9C3F-4B11-9095-FB89A547D61E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B2F7B5-8E59-498D-8C9D-352B09C1FE8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2687,6 +2681,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{308980BF-9C3F-4B11-9095-FB89A547D61E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5043D0-00AE-4565-A363-7C00372C4FA5}">
   <ds:schemaRefs>
